--- a/kyivbot/resources/mob_operators/vodafone.xlsx
+++ b/kyivbot/resources/mob_operators/vodafone.xlsx
@@ -1,77 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\task3\data\mob_operators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\mob_operators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7EF60-0A10-49C2-B47F-CE985DE27ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC908A-8A6D-4A9F-9FDB-B7E2739AAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>vodafone</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>ТРЦ ДрімТаун-2, просп. Оболонський, 21 Б Сьогодні з 10:00 до 19:00 вул. Генерала Алмазова, 2 Сьогодні з 09:00 до 17:30 вул. Хрещатик, 15/4 Сьогодні з 10:00 до 18:00 ТРЦ РайON, вул. Миколи Лаврухіна, 4 Сьогодні з 10:00 до 20:45 ТЦ Аркадія, вул. Дніпровська набережна, 33 Сьогодні з 10:00 до 20:00 ТЦ Європарк, с. Софіївська Борщагівка, вул. Соборна, 140 А Сьогодні з 10:00 до 20:00 вул. Георгія Кірпи, 5 ( м-н Новус) Сьогодні з 10:00 до 20:00 ТЦ Піраміда, вул. Олександра Мишуги, 4 А Сьогодні з 10:00 до 21:00 вул. Сім'ї Сосніних, 17 ( ТЦ Ашан) Сьогодні з 10:00 до 19:00 ТРЦ Гулівер, площа Спортивна, 1 Сьогодні з 10:00 до 20:00 просп. Повітрофлотський, 50/2 Сьогодні з 10:00 до 19:00 ТРЦ Дрім Таун-1, просп. Оболонський, 1Б Сьогодні з 10:00 до 20:00 ТРЦ Проспект, вул. Г. Хоткевича, 1В Сьогодні з 10:00 до 20:00 ТРЦ NEW WAY, вул. Архітектора Вербицького, 1 Сьогодні з 10:00 до 20:00 пр. Правди, 47 Сьогодні з 10:00 до 21:00 вул. Андрія Малишка 3у Сьогодні з 10:00 до 20:00 ТРЦ ДОМАцентр, вул. Будівельників, 40 Сьогодні з 10:00 до 20:00 вул. Попудренка 90 А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vodafone - вул. Хрещатик, 15/4 </t>
+  </si>
   <si>
     <t>бул. Дружби Народів, 25 А</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ РайON, вул. Миколи Лаврухіна, 4 </t>
+  </si>
+  <si>
     <t>бул. Перова, ТРК "Квадрат", 36</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТЦ Аркадія, вул. Дніпровська набережна, 33 </t>
+  </si>
+  <si>
     <t>бул. Чоколівський, 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТЦ Європарк, вул. Соборна, 140 А </t>
+  </si>
+  <si>
     <t>пл. Вокзальна, 1 залізничний вокзал, 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - вул. Георгія Кірпи, 5 ( м-н Новус) </t>
+  </si>
+  <si>
     <t>пл. Перемоги, 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТЦ Піраміда, вул. Олександра Мишуги, 4 А </t>
+  </si>
+  <si>
     <t>пр-т Григоренка, 40</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - вул. Сім'ї Сосніних, 17 ( ТЦ Ашан) </t>
+  </si>
+  <si>
     <t>пр-т. Леся Курбаса/вул. Гната Юри, ринок «Колібріс»,</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ Гулівер, площа Спортивна, 1 </t>
+  </si>
+  <si>
     <t>пр-т. Миру/пл. Ленінградська, ТЦ "Дарниця", 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - просп. Повітрофлотський, 50/2 </t>
+  </si>
+  <si>
     <t>пр-т. Оболонський, ТРЦ "Dream Town", 21 Б</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ Дрім Таун-1, просп. Оболонський, 1Б </t>
+  </si>
+  <si>
     <t>пр-т. Перемоги, ст. Святошин, 100 А</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ Проспект, вул. Г. Хоткевича, 1В </t>
+  </si>
+  <si>
     <t>пр. Перемоги, 33</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ NEW WAY, вул. Архітектора Вербицького, 1 </t>
+  </si>
+  <si>
     <t>пр. Перемоги, метро Нивки, 86</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - пр. Правди, 47 </t>
+  </si>
+  <si>
     <t>ст. м. «Академмістечко»,</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - вул. Андрія Малишка 3у </t>
+  </si>
+  <si>
     <t>вул. Антоновича, 147</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - ТРЦ ДОМАцентр, вул. Будівельників, 40 </t>
+  </si>
+  <si>
     <t>вул. Б. Хмельницького, 12</t>
   </si>
   <si>
+    <t xml:space="preserve">Vodafone - вул. Попудренка 90 А </t>
+  </si>
+  <si>
     <t>вул. Баггоутівська, 17/21</t>
   </si>
   <si>
@@ -139,19 +191,13 @@
   </si>
   <si>
     <t>вул. Щербакова, 47</t>
-  </si>
-  <si>
-    <t>vodafone</t>
-  </si>
-  <si>
-    <t>ТРЦ ДрімТаун-2, просп. Оболонський, 21 Б Сьогодні з 10:00 до 19:00 вул. Генерала Алмазова, 2 Сьогодні з 09:00 до 17:30 вул. Хрещатик, 15/4 Сьогодні з 10:00 до 18:00 ТРЦ РайON, вул. Миколи Лаврухіна, 4 Сьогодні з 10:00 до 20:45 ТЦ Аркадія, вул. Дніпровська набережна, 33 Сьогодні з 10:00 до 20:00 ТЦ Європарк, с. Софіївська Борщагівка, вул. Соборна, 140 А Сьогодні з 10:00 до 20:00 вул. Георгія Кірпи, 5 ( м-н Новус) Сьогодні з 10:00 до 20:00 ТЦ Піраміда, вул. Олександра Мишуги, 4 А Сьогодні з 10:00 до 21:00 вул. Сім'ї Сосніних, 17 ( ТЦ Ашан) Сьогодні з 10:00 до 19:00 ТРЦ Гулівер, площа Спортивна, 1 Сьогодні з 10:00 до 20:00 просп. Повітрофлотський, 50/2 Сьогодні з 10:00 до 19:00 ТРЦ Дрім Таун-1, просп. Оболонський, 1Б Сьогодні з 10:00 до 20:00 ТРЦ Проспект, вул. Г. Хоткевича, 1В Сьогодні з 10:00 до 20:00 ТРЦ NEW WAY, вул. Архітектора Вербицького, 1 Сьогодні з 10:00 до 20:00 пр. Правди, 47 Сьогодні з 10:00 до 21:00 вул. Андрія Малишка 3у Сьогодні з 10:00 до 20:00 ТРЦ ДОМАцентр, вул. Будівельників, 40 Сьогодні з 10:00 до 20:00 вул. Попудренка 90 А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +219,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,18 +237,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,218 +524,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="B19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="B21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="B24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="B25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
+      <c r="B26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="B28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="B29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="B30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
+      <c r="B31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>